--- a/inst/models/hysteresis.xlsx
+++ b/inst/models/hysteresis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="eqns" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -46,7 +46,13 @@
     <t xml:space="preserve">DIP</t>
   </si>
   <si>
-    <t xml:space="preserve">growth_G</t>
+    <t xml:space="preserve">grw_G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg C / L / h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">growth of green algae</t>
   </si>
   <si>
     <t xml:space="preserve">rg * G * hsg / (hsg + D * (eg*G + eb*B)) * DIP / (DIP + hpg)</t>
@@ -58,7 +64,10 @@
     <t xml:space="preserve">-1/cpg</t>
   </si>
   <si>
-    <t xml:space="preserve">growth_B</t>
+    <t xml:space="preserve">grw_B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">growth of blue-green algae</t>
   </si>
   <si>
     <t xml:space="preserve">rb * B * hsb / (hsb + D * (eg*G + eb*B)) * DIP / (DIP + hpb)</t>
@@ -70,6 +79,9 @@
     <t xml:space="preserve">loss_G</t>
   </si>
   <si>
+    <t xml:space="preserve">loss of green algae</t>
+  </si>
+  <si>
     <t xml:space="preserve">xg * G</t>
   </si>
   <si>
@@ -82,12 +94,21 @@
     <t xml:space="preserve">loss_B</t>
   </si>
   <si>
+    <t xml:space="preserve">loss of blue-green algae</t>
+  </si>
+  <si>
     <t xml:space="preserve">xb * B</t>
   </si>
   <si>
     <t xml:space="preserve">1/cpb</t>
   </si>
   <si>
+    <t xml:space="preserve">flush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg / L / h</t>
+  </si>
+  <si>
     <t xml:space="preserve">flushing</t>
   </si>
   <si>
@@ -109,58 +130,130 @@
     <t xml:space="preserve">mg C / L</t>
   </si>
   <si>
+    <t xml:space="preserve">green algae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bluegreen algae</t>
+  </si>
+  <si>
     <t xml:space="preserve">mg P / L</t>
   </si>
   <si>
+    <t xml:space="preserve">dissolved inorganic phosphorus</t>
+  </si>
+  <si>
     <t xml:space="preserve">rg</t>
   </si>
   <si>
+    <t xml:space="preserve">1 / h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">growth rate constant of green algae</t>
+  </si>
+  <si>
     <t xml:space="preserve">rb</t>
   </si>
   <si>
+    <t xml:space="preserve">growth rate constant of blue-green algae</t>
+  </si>
+  <si>
     <t xml:space="preserve">xg</t>
   </si>
   <si>
+    <t xml:space="preserve">loss rate constant of green algae</t>
+  </si>
+  <si>
     <t xml:space="preserve">xb</t>
   </si>
   <si>
+    <t xml:space="preserve">loss rate constant of blue-green algae</t>
+  </si>
+  <si>
     <t xml:space="preserve">hsg</t>
   </si>
   <si>
+    <t xml:space="preserve">dimenionless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">controls shade tolerance of green algae</t>
+  </si>
+  <si>
     <t xml:space="preserve">hsb</t>
   </si>
   <si>
+    <t xml:space="preserve">controls shade tolerance of blue-green algae</t>
+  </si>
+  <si>
     <t xml:space="preserve">hpg</t>
   </si>
   <si>
+    <t xml:space="preserve">controls P limitation of green algae</t>
+  </si>
+  <si>
     <t xml:space="preserve">hpb</t>
   </si>
   <si>
+    <t xml:space="preserve">controls P limitation of blue-green algae</t>
+  </si>
+  <si>
     <t xml:space="preserve">eg</t>
   </si>
   <si>
+    <t xml:space="preserve">1 / m / (mg C / L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specific light attenuation const. for green algae </t>
+  </si>
+  <si>
     <t xml:space="preserve">eb</t>
   </si>
   <si>
+    <t xml:space="preserve">specific light attenuation const. for blue-green algae </t>
+  </si>
+  <si>
     <t xml:space="preserve">cpg</t>
   </si>
   <si>
+    <t xml:space="preserve">mass ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:P ratio in green algae</t>
+  </si>
+  <si>
     <t xml:space="preserve">cpb</t>
   </si>
   <si>
+    <t xml:space="preserve">C:P ratio in blue-green algae</t>
+  </si>
+  <si>
     <t xml:space="preserve">tau</t>
   </si>
   <si>
+    <t xml:space="preserve">days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residence time</t>
+  </si>
+  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">DIPin</t>
   </si>
   <si>
+    <t xml:space="preserve">phosphorus in inflow</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.02</t>
   </si>
   <si>
     <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water depth</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
@@ -214,7 +307,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,7 +317,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
   </fills>
@@ -262,7 +361,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -291,6 +390,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -303,7 +406,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -320,7 +423,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -370,13 +473,13 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.77"/>
@@ -412,73 +515,103 @@
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,10 +642,10 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.72"/>
@@ -529,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,7 +670,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>10</v>
@@ -548,7 +684,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>10</v>
@@ -559,7 +698,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0.1</v>
@@ -584,10 +726,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -600,12 +742,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1.2</v>
@@ -613,7 +761,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="D3" s="6" t="n">
         <v>0.6</v>
@@ -621,7 +775,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>0.12</v>
@@ -629,7 +789,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>32</v>
+        <v>46</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0.06</v>
@@ -637,7 +803,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>1.5</v>
@@ -645,7 +817,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>3</v>
@@ -653,7 +831,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="D8" s="6" t="n">
         <v>0.01</v>
@@ -661,7 +845,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0.01</v>
@@ -669,7 +859,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>57</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0.5</v>
@@ -677,7 +873,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
@@ -685,7 +887,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>39</v>
+        <v>62</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">(106*12)/31</f>
@@ -694,7 +902,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>40</v>
+        <v>65</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">(106*12)/31</f>
@@ -703,32 +917,44 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D16" s="5" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,11 +985,11 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.36"/>
   </cols>
@@ -773,16 +999,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/inst/models/hysteresis.xlsx
+++ b/inst/models/hysteresis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="eqns" sheetId="1" state="visible" r:id="rId2"/>
@@ -473,11 +473,11 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.15"/>
@@ -645,7 +645,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.72"/>
@@ -725,11 +725,11 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -896,8 +896,8 @@
         <v>64</v>
       </c>
       <c r="D12" s="0" t="n">
-        <f aca="false">(106*12)/31</f>
-        <v>41.0322580645161</v>
+        <f aca="false">ROUND((106*12)/31, 2)</f>
+        <v>41.03</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -911,8 +911,8 @@
         <v>66</v>
       </c>
       <c r="D13" s="0" t="n">
-        <f aca="false">(106*12)/31</f>
-        <v>41.0322580645161</v>
+        <f aca="false">ROUND((106*12)/31, 2)</f>
+        <v>41.03</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,7 +989,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.36"/>
   </cols>

--- a/inst/models/hysteresis.xlsx
+++ b/inst/models/hysteresis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="eqns" sheetId="1" state="visible" r:id="rId2"/>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">growth of green algae</t>
   </si>
   <si>
-    <t xml:space="preserve">rg * G * hsg / (hsg + D * (eg*G + eb*B)) * DIP / (DIP + hpg)</t>
+    <t xml:space="preserve">rg * G * hsg / (hsg + D * (eg * G + eb * B)) * DIP / (DIP + hpg)</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">growth of blue-green algae</t>
   </si>
   <si>
-    <t xml:space="preserve">rb * B * hsb / (hsb + D * (eg*G + eb*B)) * DIP / (DIP + hpb)</t>
+    <t xml:space="preserve">rb * B * hsb / (hsb + D * (eg * G + eb * B)) * DIP / (DIP + hpb)</t>
   </si>
   <si>
     <t xml:space="preserve">-1/cpb</t>
@@ -473,11 +473,11 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.15"/>
@@ -645,7 +645,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.72"/>
@@ -725,11 +725,11 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -989,7 +989,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.36"/>
   </cols>
